--- a/biology/Zoologie/Adelotypa_penthea/Adelotypa_penthea.xlsx
+++ b/biology/Zoologie/Adelotypa_penthea/Adelotypa_penthea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelotypa penthea est une espèce d'insectes lépidoptères (papillons) de la famille des Riodinidae et du genre Adelotypa.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelotypa penthea a été décrit par Pieter Cramer en 1777 sous le nom de Papilio penthea.
-Synonymes : Lemonias pentheus Butler, 1867[2].
+Synonymes : Lemonias pentheus Butler, 1867.
 </t>
         </is>
       </c>
@@ -543,15 +557,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (18 décembre 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 décembre 2020) :
 sous-espèce Adelotypa penthea penthea (Cramer, 1777) - Guyane, Guyana, Surinam
 sous-espèce Adelotypa penthea auseris (Hewitson, 1863) - Brésil, Pérou
-sous-espèce Adelotypa penthea nitelina (Stichel, 1910) - Pérou
-Nom vernaculaire
-Il se nomme Penthea Metalmark en anglais[3].
-</t>
+sous-espèce Adelotypa penthea nitelina (Stichel, 1910) - Pérou</t>
         </is>
       </c>
     </row>
@@ -576,12 +589,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Liste des sous-espèces</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelotypa penthea est un papillon  au dessus orange nacré avec une ligne submarginale d'ocelles discrets aux antérieures vers l'apex, limités à un cercle clair, centrés de noir sur le reste des antérieures et aux postérieures. Le revers est beige doré avec la même ligne submarginale d'ocelles pupillés de foncé aux postérieures.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Penthea Metalmark en anglais.
 </t>
         </is>
       </c>
@@ -607,10 +626,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelotypa penthea est un papillon  au dessus orange nacré avec une ligne submarginale d'ocelles discrets aux antérieures vers l'apex, limités à un cercle clair, centrés de noir sur le reste des antérieures et aux postérieures. Le revers est beige doré avec la même ligne submarginale d'ocelles pupillés de foncé aux postérieures.
+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,14 +659,79 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adelotypa_penthea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelotypa_penthea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelotypa penthea est présent en Guyane, au Guyana, au Surinam, au Brésil et au Pérou[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelotypa penthea est présent en Guyane, au Guyana, au Surinam, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adelotypa_penthea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelotypa_penthea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
